--- a/document/공연리스트_04.xlsx
+++ b/document/공연리스트_04.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EB698B-3FD0-455A-BB97-78FB0F748B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1E707D-BBAF-414D-8E36-FB6EFD49568D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31845" yWindow="1665" windowWidth="25170" windowHeight="12330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="1725" windowWidth="25380" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="공연정보" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="154">
   <si>
     <t>공연코드</t>
   </si>
@@ -191,6 +191,453 @@
   </si>
   <si>
     <t>http://www.playdb.co.kr/artistdb/detail.asp?ManNo=1541&amp;part=013001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">카더가든	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카더가든 콘서트 Home Sweet Home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루스퀘어 마스터카드홀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전석 110,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정은지 콘서트 Travelog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코엑스 신한카드 아티움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관람등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	8세이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전석 121,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22016130_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22015085_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	정은지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8세이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치드 콘서트 HIGHLIGHT 2022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	예스24 라이브홀 (구 악스코리아)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만 7세이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전석 88,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	https://ticketimage.interpark.com/Play/image/large/22/22016554_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박혜원 콘서트 First of all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰(HYNN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	2022.12.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22015278_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페퍼톤스 콘서트 THOUSAND UMBRELLAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	2022.12.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	만 7세이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예스24 라이브홀 (구 악스코리아)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R석 121,000원
+S석 110,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	페퍼톤스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22015132_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이클 볼튼 내한공연 Encore, 'Michael Bolton Live in Seoul'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	마이클 볼튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.01.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.01.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고척스카이돔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP석 120,000원
+R석 100,000원
+S석 70,000원
+A석 50,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22016588_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넬 콘서트 Goodbye, Hello in NELL’S ROOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.01.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 잠실 학생체육관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	넬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미취학아동 입장불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	120분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R석 154,000원
+S석 132,000원
+A석 99,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/Play/image/large/22/22015770_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멜로망스 콘서트 - 부산Festival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벡스코 오디토리움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멜로망스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22014878_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP석 132,000원
+R석 121,000원
+S석 110,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이석훈 콘서트 휴(休)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장충체육관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R석 132,000원
+S석 121,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22015072_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이석훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+나이트위시 내한공연 Nightwish Live in Seoul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	KBS아레나 (구88체육관)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만 12세이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150분 (인터미션 : 30분)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	2023.01.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.01.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠딩(가,나,다,라)  132,000원
+지정석 R석 132,000원
+지정석 S석 121,000원
+지정석 A석 99,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이트위시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22016390_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임강성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DA…layDicUpload/040004/08/03/0400040803_7473_021.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이 Tei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DA…icUpload/040004/07/01/0400040701_1165_011.043.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김장훈 Kim Jang Hoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DA…PlayDicUpload/040004/07/01/0400040701_1008_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태진아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DA…layDicUpload/040004/08/01/0400040801_4731_021.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DA…layDicUpload/040004/07/01/0400040701_1029_012.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티아라 T-ara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DA…cUpload/040004/09/08/0400040908_16912_021.508.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백지영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DA…DicUpload/040004/07/01/0400040701_1274_01.144.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이소라 Lee So Ra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DA…PlayDicUpload/040004/07/01/0400040701_1027_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가수
+뮤지컬배우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DA…layDicUpload/040004/07/01/0400040701_1455_011.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조영남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혜은이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DA…layDicUpload/040004/07/01/0400040701_1541_011.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop
+folk
+blues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>folk
+blues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classic
+pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop
+trot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop
+rock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballad
+pop
+rnb
+soul</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,9 +690,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -527,23 +982,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,11 +1026,17 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -598,64 +1062,344 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J3" s="1" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J5" s="1" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J7" s="1" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J9" s="1" t="s">
+    <row r="8" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J11" s="1" t="s">
+    <row r="10" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J13" s="1" t="s">
+    <row r="12" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J15" s="1" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J17" s="1" t="s">
+    <row r="17" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J19" s="1" t="s">
+    <row r="19" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L19" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J1" r:id="rId1" xr:uid="{9F732C99-29D4-4DB8-8C3A-6AF25AB0B09A}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{BE9AF347-3C52-45F0-90FA-A2D9B2087C66}"/>
-    <hyperlink ref="J5" r:id="rId3" xr:uid="{1A26BC41-A3C0-4E2C-8191-377B9CB8512E}"/>
-    <hyperlink ref="J7" r:id="rId4" xr:uid="{0E4CE49E-2BED-460F-A6A2-E10F602D052F}"/>
-    <hyperlink ref="J9" r:id="rId5" xr:uid="{70787766-82FE-4CD1-BAFD-4DE6BD6FC1D2}"/>
-    <hyperlink ref="J11" r:id="rId6" xr:uid="{85DED6A9-E9DA-4A5C-8D01-0AC683F1C37A}"/>
-    <hyperlink ref="J13" r:id="rId7" xr:uid="{84A68596-893C-4DE5-80C0-2E55B858A4E9}"/>
-    <hyperlink ref="J15" r:id="rId8" xr:uid="{4E3AD9D5-D890-427E-8D92-93ADF42D506F}"/>
-    <hyperlink ref="J17" r:id="rId9" xr:uid="{6D2D6CB0-7D6B-46E2-B406-DAEDA8A3F1C2}"/>
-    <hyperlink ref="J19" r:id="rId10" xr:uid="{6267F23A-B9DC-42AE-B7A9-B0E236615CC1}"/>
+    <hyperlink ref="L1" r:id="rId1" xr:uid="{9F732C99-29D4-4DB8-8C3A-6AF25AB0B09A}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{BE9AF347-3C52-45F0-90FA-A2D9B2087C66}"/>
+    <hyperlink ref="L5" r:id="rId3" xr:uid="{1A26BC41-A3C0-4E2C-8191-377B9CB8512E}"/>
+    <hyperlink ref="L7" r:id="rId4" xr:uid="{0E4CE49E-2BED-460F-A6A2-E10F602D052F}"/>
+    <hyperlink ref="L9" r:id="rId5" xr:uid="{70787766-82FE-4CD1-BAFD-4DE6BD6FC1D2}"/>
+    <hyperlink ref="L11" r:id="rId6" xr:uid="{85DED6A9-E9DA-4A5C-8D01-0AC683F1C37A}"/>
+    <hyperlink ref="L13" r:id="rId7" xr:uid="{84A68596-893C-4DE5-80C0-2E55B858A4E9}"/>
+    <hyperlink ref="L15" r:id="rId8" xr:uid="{4E3AD9D5-D890-427E-8D92-93ADF42D506F}"/>
+    <hyperlink ref="L17" r:id="rId9" xr:uid="{6D2D6CB0-7D6B-46E2-B406-DAEDA8A3F1C2}"/>
+    <hyperlink ref="L19" r:id="rId10" xr:uid="{6267F23A-B9DC-42AE-B7A9-B0E236615CC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
@@ -667,15 +1411,15 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -722,29 +1466,189 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3">
+        <v>2002</v>
+      </c>
+      <c r="F3" t="s">
+        <v>149</v>
+      </c>
       <c r="H3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4">
+        <v>2004</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5">
+        <v>1991</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6">
+        <v>1973</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7">
+        <v>1994</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="H7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8">
+        <v>2009</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9">
+        <v>1999</v>
+      </c>
+      <c r="F9" t="s">
+        <v>149</v>
+      </c>
       <c r="H9" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10">
+        <v>1991</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11">
+        <v>1970</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12">
+        <v>1975</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">

--- a/document/공연리스트_04.xlsx
+++ b/document/공연리스트_04.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\Tiget\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1E707D-BBAF-414D-8E36-FB6EFD49568D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189A2D8A-99B9-4289-BD34-9A448DBF0C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="1725" windowWidth="25380" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="공연정보" sheetId="1" r:id="rId1"/>
@@ -519,10 +519,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://ticketimage.interpark.com/PlayDictionary/DA…layDicUpload/040004/08/03/0400040803_7473_021.gif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테이 Tei</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -531,55 +527,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://ticketimage.interpark.com/PlayDictionary/DA…icUpload/040004/07/01/0400040701_1165_011.043.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김장훈 Kim Jang Hoon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://ticketimage.interpark.com/PlayDictionary/DA…PlayDicUpload/040004/07/01/0400040701_1008_01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>태진아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://ticketimage.interpark.com/PlayDictionary/DA…layDicUpload/040004/08/01/0400040801_4731_021.gif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>박진영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://ticketimage.interpark.com/PlayDictionary/DA…layDicUpload/040004/07/01/0400040701_1029_012.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>티아라 T-ara</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://ticketimage.interpark.com/PlayDictionary/DA…cUpload/040004/09/08/0400040908_16912_021.508.gif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>백지영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://ticketimage.interpark.com/PlayDictionary/DA…DicUpload/040004/07/01/0400040701_1274_01.144.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이소라 Lee So Ra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://ticketimage.interpark.com/PlayDictionary/DA…PlayDicUpload/040004/07/01/0400040701_1027_01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -588,19 +556,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://ticketimage.interpark.com/PlayDictionary/DA…layDicUpload/040004/07/01/0400040701_1455_011.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조영남</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>혜은이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://ticketimage.interpark.com/PlayDictionary/DA…layDicUpload/040004/07/01/0400040701_1541_011.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -638,6 +598,45 @@
 pop
 rnb
 soul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1541_011.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1455_011.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1027_01.jpg</t>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1274_01.144.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/09/08/0400040908_16912_021.508.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/08/01/0400040801_4731_021.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1029_012.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1008_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1165_011.043.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/08/03/0400040803_7473_021.gif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -984,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1411,7 +1410,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1471,16 +1470,16 @@
         <v>125</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="E3">
         <v>2002</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>39</v>
@@ -1488,36 +1487,36 @@
     </row>
     <row r="4" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
         <v>127</v>
       </c>
-      <c r="C4" t="s">
-        <v>128</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E4">
         <v>2004</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="E5">
         <v>1991</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>40</v>
@@ -1525,36 +1524,36 @@
     </row>
     <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E6">
         <v>1973</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="E7">
         <v>1994</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>41</v>
@@ -1562,36 +1561,36 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E8">
         <v>2009</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E9">
         <v>1999</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>42</v>
@@ -1599,36 +1598,36 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E10">
         <v>1991</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E11">
         <v>1970</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>43</v>
@@ -1636,19 +1635,19 @@
     </row>
     <row r="12" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E12">
         <v>1975</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1686,5 +1685,6 @@
     <hyperlink ref="H19" r:id="rId10" xr:uid="{A4525979-AFFB-40A9-AC85-D8164CCAFDFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>